--- a/SprintBacklog1.xlsx
+++ b/SprintBacklog1.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +657,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/SprintBacklog1.xlsx
+++ b/SprintBacklog1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Designa formulär</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Ta bort medlem</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -173,18 +179,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Sheet1!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -199,7 +205,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -213,12 +219,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:f>Sheet1!$C$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -244,11 +250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101398016"/>
-        <c:axId val="568760512"/>
+        <c:axId val="124243968"/>
+        <c:axId val="51680320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101398016"/>
+        <c:axId val="124243968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,7 +263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568760512"/>
+        <c:crossAx val="51680320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -265,7 +271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568760512"/>
+        <c:axId val="51680320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,7 +282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101398016"/>
+        <c:crossAx val="124243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -302,13 +308,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -620,48 +626,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -669,30 +675,36 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -706,68 +718,96 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <f>SUM(B2:B5)</f>
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <f>SUM(C2:C6)</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(D2:D6)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
